--- a/routes/高数1.xlsx
+++ b/routes/高数1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="151">
   <si>
     <t>课程号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,33 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>罗龙</t>
-  </si>
-  <si>
-    <t>2015150139</t>
-  </si>
-  <si>
-    <t>钟敏玲</t>
-  </si>
-  <si>
-    <t>2016040284</t>
-  </si>
-  <si>
-    <t>陈晓健</t>
-  </si>
-  <si>
-    <t>2015150018</t>
-  </si>
-  <si>
-    <t>13723704991</t>
-  </si>
-  <si>
-    <t>15602970741</t>
-  </si>
-  <si>
-    <t>13680615377</t>
-  </si>
-  <si>
     <t>高等数学A2</t>
   </si>
   <si>
@@ -101,43 +74,420 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>没空</t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁嘉慧</t>
+  </si>
+  <si>
+    <t>廖圣坚</t>
+  </si>
+  <si>
+    <t>贺敬铭</t>
+  </si>
+  <si>
+    <t>江长源</t>
+  </si>
+  <si>
+    <t>周彦</t>
+  </si>
+  <si>
+    <t>林佳涛</t>
+  </si>
+  <si>
+    <t>谭嘉琪</t>
+  </si>
+  <si>
+    <t>黄柏皓</t>
+  </si>
+  <si>
+    <t>郑洲钊</t>
+  </si>
+  <si>
+    <t>贺小天</t>
+  </si>
+  <si>
+    <t>黎思力</t>
+  </si>
+  <si>
+    <t>谢少辉</t>
+  </si>
+  <si>
+    <t>苏东远</t>
+  </si>
+  <si>
+    <t>庞志鸿</t>
+  </si>
+  <si>
+    <t>李正鸿</t>
+  </si>
+  <si>
+    <t>杨红梅</t>
+  </si>
+  <si>
+    <t>陈伟新</t>
+  </si>
+  <si>
+    <t>李少捷</t>
+  </si>
+  <si>
+    <t>晋乔治</t>
+  </si>
+  <si>
+    <t>邢凯旋</t>
+  </si>
+  <si>
+    <t>郑令鹏</t>
+  </si>
+  <si>
+    <t>李斯濠</t>
+  </si>
+  <si>
+    <t>苏晓鑫</t>
+  </si>
+  <si>
+    <t>温标林</t>
+  </si>
+  <si>
+    <t>钟嘉荣</t>
+  </si>
+  <si>
+    <t>詹斯茹</t>
+  </si>
+  <si>
+    <t>张柏鸣</t>
+  </si>
+  <si>
+    <t>王亚君</t>
+  </si>
+  <si>
+    <t>洪铭婷</t>
+  </si>
+  <si>
+    <t>吴秀玲</t>
+  </si>
+  <si>
+    <t>林冠煜</t>
+  </si>
+  <si>
+    <t>周文武</t>
+  </si>
+  <si>
+    <t>汪颖</t>
+  </si>
+  <si>
+    <t>林贤辉</t>
+  </si>
+  <si>
+    <t>黄钢</t>
+  </si>
+  <si>
+    <t>叶锐桓</t>
+  </si>
+  <si>
+    <t>彭德欣</t>
+  </si>
+  <si>
+    <t>吴锡宏</t>
+  </si>
+  <si>
+    <t>黄益俊</t>
+  </si>
+  <si>
+    <t>杨海涛</t>
+  </si>
+  <si>
+    <t>李嘉林</t>
+  </si>
+  <si>
+    <t>2015150191</t>
+  </si>
+  <si>
+    <t>2015150013</t>
+  </si>
+  <si>
+    <t>2015150265</t>
+  </si>
+  <si>
+    <t>2015150310</t>
+  </si>
+  <si>
+    <t>2016150090</t>
+  </si>
+  <si>
+    <t>2016150095</t>
+  </si>
+  <si>
+    <t>2015170167</t>
+  </si>
+  <si>
+    <t>2016150097</t>
+  </si>
+  <si>
+    <t>2016150118</t>
+  </si>
+  <si>
+    <t>2016150137</t>
+  </si>
+  <si>
+    <t>2016150069</t>
+  </si>
+  <si>
+    <t>2016150078</t>
+  </si>
+  <si>
+    <t>2015150095</t>
+  </si>
+  <si>
+    <t>2016150098</t>
+  </si>
+  <si>
+    <t>2015150306</t>
+  </si>
+  <si>
+    <t>2015140176</t>
+  </si>
+  <si>
+    <t>2016154094</t>
+  </si>
+  <si>
+    <t>2016150004</t>
+  </si>
+  <si>
+    <t>2016150177</t>
+  </si>
+  <si>
+    <t>2016150016</t>
+  </si>
+  <si>
+    <t>2016150010</t>
+  </si>
+  <si>
+    <t>2016180077</t>
+  </si>
+  <si>
+    <t>2016150013</t>
+  </si>
+  <si>
+    <t>2016190037</t>
+  </si>
+  <si>
+    <t>2016150017</t>
+  </si>
+  <si>
+    <t>2015150318</t>
+  </si>
+  <si>
+    <t>2016150109</t>
+  </si>
+  <si>
+    <t>2015150130</t>
+  </si>
+  <si>
+    <t>2016150083</t>
+  </si>
+  <si>
+    <t>2016150030</t>
+  </si>
+  <si>
+    <t>2016150018</t>
+  </si>
+  <si>
+    <t>2014150096</t>
+  </si>
+  <si>
+    <t>2015150311</t>
+  </si>
+  <si>
+    <t>2016150034</t>
+  </si>
+  <si>
+    <t>2016150170</t>
+  </si>
+  <si>
+    <t>2016150036</t>
+  </si>
+  <si>
+    <t>2014150273</t>
+  </si>
+  <si>
+    <t>2016150195</t>
+  </si>
+  <si>
+    <t>2016150129</t>
+  </si>
+  <si>
+    <t>2015150216</t>
+  </si>
+  <si>
+    <t>2015150069</t>
+  </si>
+  <si>
+    <t>201517167</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>18948317061</t>
+  </si>
+  <si>
+    <t>13798230763</t>
+  </si>
+  <si>
+    <t>13068787763</t>
+  </si>
+  <si>
+    <t>13609795129</t>
+  </si>
+  <si>
+    <t>13602650491</t>
+  </si>
+  <si>
+    <t>13534026733</t>
+  </si>
+  <si>
+    <t>18923882911</t>
+  </si>
+  <si>
+    <t>13602664100</t>
+  </si>
+  <si>
+    <t>13602663672</t>
+  </si>
+  <si>
+    <t>18129905007</t>
+  </si>
+  <si>
+    <t>13229734303</t>
+  </si>
+  <si>
+    <t>13670497126</t>
+  </si>
+  <si>
+    <t>13798229462</t>
+  </si>
+  <si>
+    <t>13602677643</t>
+  </si>
+  <si>
+    <t>13760182550</t>
+  </si>
+  <si>
+    <t>13760216051</t>
+  </si>
+  <si>
+    <t>13510656877+15602908874</t>
+  </si>
+  <si>
+    <t>13418153686</t>
+  </si>
+  <si>
+    <t>13602677460</t>
+  </si>
+  <si>
+    <t>18194092049</t>
+  </si>
+  <si>
+    <t>13602680496</t>
+  </si>
+  <si>
+    <t>15602900261</t>
+  </si>
+  <si>
+    <t>13632889287</t>
+  </si>
+  <si>
+    <t>18718036308</t>
+  </si>
+  <si>
+    <t>18476271632</t>
+  </si>
+  <si>
+    <t>15625202428</t>
+  </si>
+  <si>
+    <t>13631025151</t>
+  </si>
+  <si>
+    <t>13798259095</t>
+  </si>
+  <si>
+    <t>15012589820</t>
+  </si>
+  <si>
+    <t>13509627142</t>
+  </si>
+  <si>
+    <t>18123726569</t>
+  </si>
+  <si>
+    <t>15989504349</t>
+  </si>
+  <si>
+    <t>13728984607</t>
+  </si>
+  <si>
+    <t>15602972593</t>
+  </si>
+  <si>
+    <t>13602592435</t>
+  </si>
+  <si>
+    <t>18813941809</t>
+  </si>
+  <si>
+    <t>13148721995</t>
+  </si>
+  <si>
+    <t>13085787765</t>
+  </si>
+  <si>
+    <t>13602650454</t>
+  </si>
+  <si>
+    <t>13723761546</t>
+  </si>
+  <si>
+    <t>13723712913</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没空</t>
-  </si>
-  <si>
-    <t>上午</t>
-  </si>
-  <si>
-    <t>下午</t>
-  </si>
-  <si>
-    <t>晚上</t>
-  </si>
-  <si>
     <t>0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +518,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,7 +533,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,17 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -222,7 +567,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -588,134 +933,1938 @@
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>26</v>
+        <v>149</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>26</v>
+        <v>147</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>26</v>
+      <c r="C45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
